--- a/data/trans_orig/P57B6_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57B6_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>33302</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23556</v>
+        <v>22921</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45244</v>
+        <v>45566</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1047987709061388</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07412953253302824</v>
+        <v>0.07213299605693853</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1423815581483196</v>
+        <v>0.1433947310459354</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>31</v>
@@ -762,19 +762,19 @@
         <v>16944</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11665</v>
+        <v>11242</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23766</v>
+        <v>23760</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05360944994162944</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03690876819289096</v>
+        <v>0.03556932425618411</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07519401467922347</v>
+        <v>0.07517479887691808</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>68</v>
@@ -783,19 +783,19 @@
         <v>50245</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>38695</v>
+        <v>39256</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>65009</v>
+        <v>65112</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07927300891178542</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06104970887522148</v>
+        <v>0.06193555631893827</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1025660100840417</v>
+        <v>0.1027282359780037</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>272143</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>256668</v>
+        <v>257454</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>283306</v>
+        <v>283106</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8564223665275424</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8077223926950939</v>
+        <v>0.8101975917750698</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8915531103479032</v>
+        <v>0.8909223033487691</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>472</v>
@@ -833,19 +833,19 @@
         <v>279290</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>270173</v>
+        <v>269562</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>286996</v>
+        <v>287778</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8836576451537043</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8548134476145578</v>
+        <v>0.8528804798802632</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9080399737039057</v>
+        <v>0.9105137660623818</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>753</v>
@@ -854,19 +854,19 @@
         <v>551432</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>534009</v>
+        <v>532998</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>566221</v>
+        <v>565694</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8700033483995877</v>
+        <v>0.8700033483995875</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8425145548381313</v>
+        <v>0.8409183054117731</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8933356532942326</v>
+        <v>0.8925037402165664</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>11451</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6032</v>
+        <v>5770</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19872</v>
+        <v>20055</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03603642714673358</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01898208815104218</v>
+        <v>0.01815872742205124</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06253525260076036</v>
+        <v>0.0631115811168495</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>33</v>
@@ -904,19 +904,19 @@
         <v>18789</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13130</v>
+        <v>13060</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>27215</v>
+        <v>27738</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05944692152313886</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04154111833661644</v>
+        <v>0.04132185903294409</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.086107129308159</v>
+        <v>0.08776144302584803</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>44</v>
@@ -925,19 +925,19 @@
         <v>30240</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>22144</v>
+        <v>21681</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>40670</v>
+        <v>41273</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04771016487880034</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03493624805246144</v>
+        <v>0.03420666625376019</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0641655312150224</v>
+        <v>0.06511635415274229</v>
       </c>
     </row>
     <row r="7">
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3932</v>
+        <v>5113</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002742435419585264</v>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01237531554587625</v>
+        <v>0.01609130608317011</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>3669</v>
+        <v>3509</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.003285983381527393</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01160816301844097</v>
+        <v>0.01110101837463646</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -996,19 +996,19 @@
         <v>1910</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5953</v>
+        <v>5730</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.003013477809826582</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0007661550850355983</v>
+        <v>0.0007718403398667573</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.009392048545549566</v>
+        <v>0.009040273016458813</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>299637</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>268196</v>
+        <v>269901</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>326533</v>
+        <v>324972</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.568530452910707</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5088750232502854</v>
+        <v>0.5121100331028319</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6195641762751382</v>
+        <v>0.6166017624483062</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>291</v>
@@ -1121,19 +1121,19 @@
         <v>230490</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>210253</v>
+        <v>209392</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>253921</v>
+        <v>252103</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4232153771561098</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3860559196553497</v>
+        <v>0.3844754212154903</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4662370936376823</v>
+        <v>0.4628994857117235</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>500</v>
@@ -1142,19 +1142,19 @@
         <v>530127</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>496720</v>
+        <v>496074</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>563983</v>
+        <v>567710</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.4946810125812411</v>
+        <v>0.4946810125812414</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4635073805660264</v>
+        <v>0.4629054333795326</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5262737041918091</v>
+        <v>0.5297516052861513</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>166923</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>143297</v>
+        <v>140912</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>197274</v>
+        <v>194244</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3167195852253983</v>
+        <v>0.3167195852253982</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2718918725272463</v>
+        <v>0.2673672756505302</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3743084933052133</v>
+        <v>0.3685591351255052</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>278</v>
@@ -1192,19 +1192,19 @@
         <v>208082</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>186574</v>
+        <v>188331</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>229423</v>
+        <v>228600</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3820695457302961</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3425785245448325</v>
+        <v>0.3458047497102774</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.421254992995427</v>
+        <v>0.4197443643019101</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>405</v>
@@ -1213,19 +1213,19 @@
         <v>375005</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>341391</v>
+        <v>342849</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>408042</v>
+        <v>409704</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3499305785361643</v>
+        <v>0.3499305785361644</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3185641717260793</v>
+        <v>0.3199249056810128</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3807593529785606</v>
+        <v>0.3823096074431553</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>43755</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>30228</v>
+        <v>30684</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>61932</v>
+        <v>60574</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.08302119704409214</v>
+        <v>0.08302119704409212</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05735373339202693</v>
+        <v>0.05822042370236216</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1175106239298947</v>
+        <v>0.1149329732945194</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>121</v>
@@ -1263,19 +1263,19 @@
         <v>86453</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>72466</v>
+        <v>71857</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>101194</v>
+        <v>101278</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1587400294253863</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1330580701677629</v>
+        <v>0.1319404053925154</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1858085437588164</v>
+        <v>0.1859611375373371</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>154</v>
@@ -1284,19 +1284,19 @@
         <v>130208</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>111063</v>
+        <v>111108</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>152286</v>
+        <v>153590</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.1215016737924401</v>
+        <v>0.1215016737924402</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1036373083810088</v>
+        <v>0.1036793204952564</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.142104143522269</v>
+        <v>0.1433200948229398</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>16722</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8550</v>
+        <v>8120</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>28501</v>
+        <v>29546</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03172876481980259</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01622212151737124</v>
+        <v>0.01540738224529708</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0540769979012645</v>
+        <v>0.05606017717773178</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>25</v>
@@ -1334,19 +1334,19 @@
         <v>19593</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>12749</v>
+        <v>12500</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>29056</v>
+        <v>28420</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03597504768820772</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02340938711830697</v>
+        <v>0.02295185759727554</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0533515356536027</v>
+        <v>0.05218371012052388</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>37</v>
@@ -1355,19 +1355,19 @@
         <v>36315</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>25061</v>
+        <v>26387</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>51412</v>
+        <v>51958</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.03388673509015423</v>
+        <v>0.03388673509015424</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02338576447490542</v>
+        <v>0.02462305556452248</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0479742821761865</v>
+        <v>0.04848416784107801</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>175231</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>157124</v>
+        <v>158166</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>191020</v>
+        <v>191486</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5561836698686592</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4987119628730511</v>
+        <v>0.5020216110295045</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.606298304426931</v>
+        <v>0.6077773640713355</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>217</v>
@@ -1480,19 +1480,19 @@
         <v>157889</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>143162</v>
+        <v>142087</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>175084</v>
+        <v>174999</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.443727976913285</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4023389337705893</v>
+        <v>0.399318891604886</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.492053049530536</v>
+        <v>0.4918129833657459</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>403</v>
@@ -1501,19 +1501,19 @@
         <v>333120</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>311109</v>
+        <v>310361</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>354989</v>
+        <v>357152</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.4965392490292446</v>
+        <v>0.4965392490292447</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4637305674057173</v>
+        <v>0.462615589271036</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5291369056461097</v>
+        <v>0.5323615177427307</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>107999</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>91479</v>
+        <v>91954</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>124639</v>
+        <v>125317</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3427900325724101</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2903563119063104</v>
+        <v>0.2918633067812961</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3956042662328391</v>
+        <v>0.3977585319633521</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>208</v>
@@ -1551,19 +1551,19 @@
         <v>131165</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>114074</v>
+        <v>116142</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>145389</v>
+        <v>146767</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3686224352359981</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3205905699229144</v>
+        <v>0.3264020775410209</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4085977187327026</v>
+        <v>0.4124718985459112</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>342</v>
@@ -1572,19 +1572,19 @@
         <v>239164</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>218881</v>
+        <v>214561</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>263478</v>
+        <v>259506</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.3564910614422573</v>
+        <v>0.3564910614422575</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3262574962599141</v>
+        <v>0.3198194620598622</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3927332870453714</v>
+        <v>0.3868119133999727</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>28122</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19386</v>
+        <v>19844</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>37717</v>
+        <v>39541</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08926068366857819</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06153136775215579</v>
+        <v>0.06298643430351437</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1197134014341543</v>
+        <v>0.125502399343239</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>81</v>
@@ -1622,19 +1622,19 @@
         <v>48105</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>38804</v>
+        <v>38303</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>58831</v>
+        <v>58033</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1351946241800974</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1090541457905252</v>
+        <v>0.1076466961019849</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.165338057678656</v>
+        <v>0.1630950341550901</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>115</v>
@@ -1643,19 +1643,19 @@
         <v>76228</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>62694</v>
+        <v>63313</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>91433</v>
+        <v>91571</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1136231966430781</v>
+        <v>0.1136231966430782</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09345020693698457</v>
+        <v>0.09437332240703056</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1362876416588507</v>
+        <v>0.1364939018013771</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>3707</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1244</v>
+        <v>1291</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8172</v>
+        <v>8641</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01176561389035248</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.003947639577000362</v>
+        <v>0.004098636499451838</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02593797515339583</v>
+        <v>0.02742516933265137</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>29</v>
@@ -1693,19 +1693,19 @@
         <v>18665</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12602</v>
+        <v>13161</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>27226</v>
+        <v>27589</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.05245496367061937</v>
+        <v>0.05245496367061936</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03541560553327695</v>
+        <v>0.03698779800412042</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07651415948053225</v>
+        <v>0.07753468895101692</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>34</v>
@@ -1714,19 +1714,19 @@
         <v>22372</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>15723</v>
+        <v>15041</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>31373</v>
+        <v>30938</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.03334649288541984</v>
+        <v>0.03334649288541985</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02343605928802895</v>
+        <v>0.02241948300314258</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04676340562020744</v>
+        <v>0.04611562835333839</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>187700</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>161616</v>
+        <v>163095</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>213885</v>
+        <v>216244</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.5072136572415238</v>
+        <v>0.5072136572415239</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4367269876214183</v>
+        <v>0.4407247441406986</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5779718772086951</v>
+        <v>0.584345597722848</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>192</v>
@@ -1839,19 +1839,19 @@
         <v>152972</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>133985</v>
+        <v>134863</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>175253</v>
+        <v>174322</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.3698946988541496</v>
+        <v>0.3698946988541497</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3239833761656382</v>
+        <v>0.3261054872338753</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4237731236661426</v>
+        <v>0.4215215029206775</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>323</v>
@@ -1860,19 +1860,19 @@
         <v>340672</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>306922</v>
+        <v>308994</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>372368</v>
+        <v>372600</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4347432587432508</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3916734345917194</v>
+        <v>0.3943175794972534</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4751917501627078</v>
+        <v>0.4754881675710582</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>124312</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>101761</v>
+        <v>101230</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>151025</v>
+        <v>150140</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3359241995072989</v>
+        <v>0.3359241995072987</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2749836616034112</v>
+        <v>0.2735488923203877</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4081079895946099</v>
+        <v>0.4057177044592454</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>205</v>
@@ -1910,19 +1910,19 @@
         <v>139570</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>119812</v>
+        <v>122781</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>157897</v>
+        <v>157342</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3374883001150332</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2897117536398629</v>
+        <v>0.2968916543565505</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3818031688681234</v>
+        <v>0.3804615344428744</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>307</v>
@@ -1931,19 +1931,19 @@
         <v>263882</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>235473</v>
+        <v>233307</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>296222</v>
+        <v>293928</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3367496572275223</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3004952575178296</v>
+        <v>0.2977314372329324</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3780187936690709</v>
+        <v>0.3750912517747806</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>54732</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>39913</v>
+        <v>41824</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>70950</v>
+        <v>73918</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1478994585638038</v>
+        <v>0.1478994585638037</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1078545873846666</v>
+        <v>0.1130193071643661</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1917256090536195</v>
+        <v>0.1997456234679435</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>169</v>
@@ -1981,19 +1981,19 @@
         <v>108965</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>92982</v>
+        <v>93411</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>128025</v>
+        <v>127619</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2634848149521394</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2248349856705114</v>
+        <v>0.2258723066284087</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3095725148678408</v>
+        <v>0.308590816270652</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>222</v>
@@ -2002,19 +2002,19 @@
         <v>163697</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>138698</v>
+        <v>141211</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>189760</v>
+        <v>188541</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2088998982437902</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1769968772281496</v>
+        <v>0.1802038787892938</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2421591471765522</v>
+        <v>0.2406040764882599</v>
       </c>
     </row>
     <row r="22">
@@ -2034,16 +2034,16 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15734</v>
+        <v>14640</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.008962684687373636</v>
+        <v>0.008962684687373634</v>
       </c>
       <c r="H22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04251643872546681</v>
+        <v>0.0395617672584504</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>17</v>
@@ -2052,19 +2052,19 @@
         <v>12048</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7172</v>
+        <v>7158</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19227</v>
+        <v>19468</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.02913218607867773</v>
+        <v>0.02913218607867774</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01734298366623842</v>
+        <v>0.0173086485923053</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04649301319929985</v>
+        <v>0.04707358791985174</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>19</v>
@@ -2073,19 +2073,19 @@
         <v>15365</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>9030</v>
+        <v>9465</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>24703</v>
+        <v>25877</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01960718578543669</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0115230019690745</v>
+        <v>0.01207887158708726</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03152376610694731</v>
+        <v>0.03302271097625628</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>29160</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>21011</v>
+        <v>20152</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>41547</v>
+        <v>41358</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1425533986408637</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1027179620852402</v>
+        <v>0.09851834082296416</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2031088290413264</v>
+        <v>0.2021873681395972</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>31</v>
@@ -2198,19 +2198,19 @@
         <v>17221</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>11568</v>
+        <v>11761</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>26457</v>
+        <v>25841</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07618483882053957</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05117383384537847</v>
+        <v>0.05202872844516745</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.117040676317371</v>
+        <v>0.1143170854874729</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>63</v>
@@ -2219,19 +2219,19 @@
         <v>46381</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>35437</v>
+        <v>35704</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>60583</v>
+        <v>60128</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.1077126646818749</v>
+        <v>0.1077126646818748</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08229696105237129</v>
+        <v>0.08291692324621849</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.140692674178084</v>
+        <v>0.1396365753308055</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>95370</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>82034</v>
+        <v>82676</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>108060</v>
+        <v>107748</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.4662319637209385</v>
+        <v>0.4662319637209384</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4010383621351911</v>
+        <v>0.4041792837291464</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5282733330479232</v>
+        <v>0.5267443886447882</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>185</v>
@@ -2269,19 +2269,19 @@
         <v>89858</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>78780</v>
+        <v>79661</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>101001</v>
+        <v>101447</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3975173261044659</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3485086748848433</v>
+        <v>0.3524095290778052</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4468114730461409</v>
+        <v>0.4487830860288473</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>311</v>
@@ -2290,19 +2290,19 @@
         <v>185228</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>168650</v>
+        <v>168618</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>201161</v>
+        <v>201985</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4301596364809745</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3916620278466673</v>
+        <v>0.3915868519517236</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.467161773570478</v>
+        <v>0.4690756409385091</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>78758</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>66774</v>
+        <v>67184</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>90572</v>
+        <v>91565</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3850245292856612</v>
+        <v>0.3850245292856611</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3264394169130238</v>
+        <v>0.3284410505916031</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.442775570821517</v>
+        <v>0.4476309732079767</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>266</v>
@@ -2340,19 +2340,19 @@
         <v>116010</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>105254</v>
+        <v>104285</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>127324</v>
+        <v>126379</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5132116910728879</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4656257060889941</v>
+        <v>0.4613418034050054</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5632605077830093</v>
+        <v>0.5590785261151172</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>383</v>
@@ -2361,19 +2361,19 @@
         <v>194769</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>178209</v>
+        <v>178895</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>211808</v>
+        <v>211745</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4523174585412837</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4138592737167717</v>
+        <v>0.4154538544437247</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4918873017932556</v>
+        <v>0.4917420081590638</v>
       </c>
     </row>
     <row r="27">
@@ -2393,16 +2393,16 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>4138</v>
+        <v>3920</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.006190108352536753</v>
+        <v>0.006190108352536752</v>
       </c>
       <c r="H27" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.02023035015878753</v>
+        <v>0.01916401430083933</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>7</v>
@@ -2411,19 +2411,19 @@
         <v>2958</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1225</v>
+        <v>1269</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>6155</v>
+        <v>5651</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.01308614400210666</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.005418419580658486</v>
+        <v>0.005616048338560946</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.02722978435056374</v>
+        <v>0.02500098741364258</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>9</v>
@@ -2432,19 +2432,19 @@
         <v>4224</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2075</v>
+        <v>1892</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>7555</v>
+        <v>7881</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.009810240295866817</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.004818947061698535</v>
+        <v>0.004393341875445544</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.01754531835976122</v>
+        <v>0.01830285764639026</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>134143</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>118792</v>
+        <v>119442</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>149326</v>
+        <v>148706</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4955278257224824</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.438822237998565</v>
+        <v>0.4412207031160523</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5516148740673312</v>
+        <v>0.5493261064486687</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>176</v>
@@ -2557,19 +2557,19 @@
         <v>119632</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>106732</v>
+        <v>106644</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>132281</v>
+        <v>131968</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.453580192812601</v>
+        <v>0.4535801928126008</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.404669926771351</v>
+        <v>0.4043370773761511</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5015382009239644</v>
+        <v>0.5003527876919573</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>341</v>
@@ -2578,19 +2578,19 @@
         <v>253775</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>232979</v>
+        <v>234136</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>272956</v>
+        <v>272716</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4748270119781739</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4359173227201985</v>
+        <v>0.4380820137030498</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5107162093155879</v>
+        <v>0.5102666866825994</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>110362</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>95435</v>
+        <v>95793</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>124837</v>
+        <v>124888</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4076818670660343</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3525409743534715</v>
+        <v>0.3538605885273339</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4611524581351927</v>
+        <v>0.4613391781343185</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>184</v>
@@ -2628,19 +2628,19 @@
         <v>93758</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>82663</v>
+        <v>81826</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>106361</v>
+        <v>105591</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.3554796812472707</v>
+        <v>0.3554796812472705</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.313414433600988</v>
+        <v>0.3102391157286288</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4032641060627898</v>
+        <v>0.4003434616717042</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>345</v>
@@ -2649,19 +2649,19 @@
         <v>204120</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>186232</v>
+        <v>185585</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>223777</v>
+        <v>223797</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3819205153348989</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3484505884046615</v>
+        <v>0.3472405515881998</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4186997650186722</v>
+        <v>0.4187376691021453</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>20030</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>14094</v>
+        <v>13806</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>27526</v>
+        <v>27241</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.07399308966224878</v>
+        <v>0.0739930896622488</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05206289231507514</v>
+        <v>0.0510001826803772</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1016834774901741</v>
+        <v>0.1006303213422749</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>86</v>
@@ -2699,19 +2699,19 @@
         <v>43537</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>35404</v>
+        <v>35605</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>53461</v>
+        <v>52999</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.1650710185493542</v>
+        <v>0.1650710185493541</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1342320071906619</v>
+        <v>0.1349965653569083</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2026949762920189</v>
+        <v>0.2009422145348378</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>122</v>
@@ -2720,19 +2720,19 @@
         <v>63568</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>52800</v>
+        <v>52343</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>75424</v>
+        <v>76198</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1189393026263944</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.09879220541714585</v>
+        <v>0.09793666225054107</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1411223426643747</v>
+        <v>0.142570769632217</v>
       </c>
     </row>
     <row r="32">
@@ -2749,19 +2749,19 @@
         <v>6171</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2990</v>
+        <v>2594</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>11803</v>
+        <v>11688</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02279721754923461</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01104607594793184</v>
+        <v>0.009583914883544821</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04359912650705637</v>
+        <v>0.04317703416520889</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>14</v>
@@ -2770,19 +2770,19 @@
         <v>6823</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3760</v>
+        <v>3961</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>11058</v>
+        <v>11823</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.02586910739077432</v>
+        <v>0.02586910739077431</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0142561578293663</v>
+        <v>0.01501625429623299</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0419244351232742</v>
+        <v>0.04482517222059446</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>23</v>
@@ -2791,19 +2791,19 @@
         <v>12994</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>8212</v>
+        <v>8085</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>19412</v>
+        <v>19141</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.02431317006053273</v>
+        <v>0.02431317006053274</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01536573700417724</v>
+        <v>0.01512737602434737</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03632134682293972</v>
+        <v>0.03581336300440546</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>282465</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>251150</v>
+        <v>253245</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>313944</v>
+        <v>316366</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.3924832059049954</v>
+        <v>0.3924832059049955</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3489704963556386</v>
+        <v>0.3518827253291103</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.436222684859374</v>
+        <v>0.4395876428956849</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>269</v>
@@ -2916,19 +2916,19 @@
         <v>223319</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>199182</v>
+        <v>201352</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>248510</v>
+        <v>251389</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2892519319205553</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2579881467542788</v>
+        <v>0.2607988198157027</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3218797958421059</v>
+        <v>0.325609746998977</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>496</v>
@@ -2937,19 +2937,19 @@
         <v>505784</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>465645</v>
+        <v>469464</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>547322</v>
+        <v>544861</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3390555307872737</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3121482490321196</v>
+        <v>0.3147079151592763</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3669007550564051</v>
+        <v>0.365250726726657</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>305599</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>274243</v>
+        <v>275977</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>335817</v>
+        <v>335676</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.4246282996501367</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.3810593521564234</v>
+        <v>0.383467527981332</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4666158881000333</v>
+        <v>0.4664193926770206</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>432</v>
@@ -2987,19 +2987,19 @@
         <v>337673</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>313084</v>
+        <v>313456</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>362351</v>
+        <v>365554</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.4373675871067186</v>
+        <v>0.4373675871067187</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.4055193748013489</v>
+        <v>0.4060009272977041</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.4693320067161873</v>
+        <v>0.473480151338469</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>690</v>
@@ -3008,19 +3008,19 @@
         <v>643272</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>604255</v>
+        <v>604527</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>685496</v>
+        <v>682427</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.4312215585065964</v>
+        <v>0.4312215585065965</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.4050662117027087</v>
+        <v>0.4052487165215232</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.4595262916503458</v>
+        <v>0.4574695290744323</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>108280</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>87952</v>
+        <v>86504</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>134110</v>
+        <v>129991</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1504537067358899</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1222090304243045</v>
+        <v>0.1201969808617063</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1863448864619569</v>
+        <v>0.180622024016714</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>202</v>
@@ -3058,19 +3058,19 @@
         <v>169092</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>147616</v>
+        <v>147564</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>193106</v>
+        <v>192282</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2190154852808372</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1911983693551415</v>
+        <v>0.1911307902284615</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2501186330598847</v>
+        <v>0.2490513303823877</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>296</v>
@@ -3079,19 +3079,19 @@
         <v>277372</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>245366</v>
+        <v>247667</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>307678</v>
+        <v>309238</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1859380739068769</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1644825492112899</v>
+        <v>0.1660250261262588</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2062537050575116</v>
+        <v>0.2072994372647967</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>23343</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>14359</v>
+        <v>15105</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>36034</v>
+        <v>36177</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.03243478770897811</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01995224776987889</v>
+        <v>0.0209878859286638</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.05006840867871325</v>
+        <v>0.05026785860454709</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>57</v>
@@ -3129,19 +3129,19 @@
         <v>41973</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>32332</v>
+        <v>31411</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>53484</v>
+        <v>54426</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.05436499569188861</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.04187785555526127</v>
+        <v>0.04068535336335716</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.06927471685607842</v>
+        <v>0.07049417608649733</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>77</v>
@@ -3150,19 +3150,19 @@
         <v>65316</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>52583</v>
+        <v>51167</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>83085</v>
+        <v>82936</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.04378483679925296</v>
+        <v>0.04378483679925297</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.03524944777224119</v>
+        <v>0.0343001976900062</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05569627493688079</v>
+        <v>0.05559684116166252</v>
       </c>
     </row>
     <row r="38">
@@ -3254,19 +3254,19 @@
         <v>343532</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>313688</v>
+        <v>313008</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>371762</v>
+        <v>372143</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.4304527806067835</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.3930574256145489</v>
+        <v>0.3922051614798069</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.465825720267771</v>
+        <v>0.4663023196585897</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>323</v>
@@ -3275,19 +3275,19 @@
         <v>281052</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>256452</v>
+        <v>255631</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>305857</v>
+        <v>307846</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.3380744763033194</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.3084841650026032</v>
+        <v>0.3074955479155278</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.3679121932875917</v>
+        <v>0.370305147374941</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>621</v>
@@ -3296,19 +3296,19 @@
         <v>624584</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>586752</v>
+        <v>586673</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>664242</v>
+        <v>668395</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.3833208105924224</v>
+        <v>0.3833208105924223</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.3601022131030753</v>
+        <v>0.3600539167447056</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.4076596922283048</v>
+        <v>0.4102087798224893</v>
       </c>
     </row>
     <row r="40">
@@ -3325,19 +3325,19 @@
         <v>302078</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>274398</v>
+        <v>272372</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>328765</v>
+        <v>328392</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.3785096288131362</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.3438261858593821</v>
+        <v>0.3412876606963618</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.4119495780800329</v>
+        <v>0.4114818088056089</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>451</v>
@@ -3346,19 +3346,19 @@
         <v>337183</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>310583</v>
+        <v>309690</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>361721</v>
+        <v>362270</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.4055946723968344</v>
+        <v>0.4055946723968343</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.3735973638670028</v>
+        <v>0.3725230541133534</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.4351102150459999</v>
+        <v>0.43577107183344</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>758</v>
@@ -3367,19 +3367,19 @@
         <v>639261</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>604312</v>
+        <v>602299</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>676419</v>
+        <v>677293</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3923285819932137</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.3708791307806917</v>
+        <v>0.3696438023626137</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.4151327765265439</v>
+        <v>0.4156691570971887</v>
       </c>
     </row>
     <row r="41">
@@ -3396,19 +3396,19 @@
         <v>130308</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>109491</v>
+        <v>111221</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>151241</v>
+        <v>154584</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1632789508613301</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1371948234920136</v>
+        <v>0.1393625065894073</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1895083215830884</v>
+        <v>0.1936965475735477</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>255</v>
@@ -3417,19 +3417,19 @@
         <v>188803</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>169771</v>
+        <v>167158</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>211055</v>
+        <v>209719</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2271093117766297</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2042164578012846</v>
+        <v>0.2010722485128231</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2538757559547535</v>
+        <v>0.2522692771589023</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>390</v>
@@ -3438,19 +3438,19 @@
         <v>319111</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>291029</v>
+        <v>289252</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>349156</v>
+        <v>349106</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1958455873605556</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1786107687443809</v>
+        <v>0.1775205216546487</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2142844122326832</v>
+        <v>0.2142540780443974</v>
       </c>
     </row>
     <row r="42">
@@ -3467,19 +3467,19 @@
         <v>22153</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>14093</v>
+        <v>14108</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>32651</v>
+        <v>33005</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.02775863971875009</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.01765898273324165</v>
+        <v>0.01767714344682194</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.04091285301714039</v>
+        <v>0.04135624758237849</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>33</v>
@@ -3488,19 +3488,19 @@
         <v>24293</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>17074</v>
+        <v>16846</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>33762</v>
+        <v>34156</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.02922153952321656</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.02053830300689023</v>
+        <v>0.02026362644593082</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.040612141354527</v>
+        <v>0.04108602296940173</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>55</v>
@@ -3509,19 +3509,19 @@
         <v>46446</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>35549</v>
+        <v>35010</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>60593</v>
+        <v>61794</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.02850502005380829</v>
+        <v>0.0285050200538083</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.02181711956549338</v>
+        <v>0.02148637918214609</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.03718736033939949</v>
+        <v>0.03792416272298246</v>
       </c>
     </row>
     <row r="43">
@@ -3613,19 +3613,19 @@
         <v>1485169</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1426737</v>
+        <v>1419607</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>1551023</v>
+        <v>1548357</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.4215704317161431</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.4049842569062073</v>
+        <v>0.4029603291262993</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.4402633575936123</v>
+        <v>0.4395065435480799</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>1530</v>
@@ -3634,19 +3634,19 @@
         <v>1199519</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>1150080</v>
+        <v>1145526</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>1254317</v>
+        <v>1250241</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.3221705131696589</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.308892026134402</v>
+        <v>0.307668705993354</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3368881711608193</v>
+        <v>0.3357934296357123</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>2815</v>
@@ -3655,19 +3655,19 @@
         <v>2684688</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>2602899</v>
+        <v>2601237</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>2768980</v>
+        <v>2770119</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.3704966622064528</v>
+        <v>0.3704966622064529</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.3592094237287112</v>
+        <v>0.3589800408657222</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3821292174075759</v>
+        <v>0.3822863725558159</v>
       </c>
     </row>
     <row r="45">
@@ -3684,19 +3684,19 @@
         <v>1484787</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>1416220</v>
+        <v>1416194</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>1545497</v>
+        <v>1546052</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.4214618732613452</v>
+        <v>0.4214618732613453</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.401999032405469</v>
+        <v>0.4019915594242119</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.4386946152634701</v>
+        <v>0.438852249817088</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>2415</v>
@@ -3705,19 +3705,19 @@
         <v>1616578</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>1567145</v>
+        <v>1561189</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>1670211</v>
+        <v>1671086</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.4341853946161142</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.4209085492643319</v>
+        <v>0.4193087438746805</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.4485901741428341</v>
+        <v>0.448825218317553</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>3911</v>
@@ -3726,19 +3726,19 @@
         <v>3101365</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>3023974</v>
+        <v>3021059</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>3186452</v>
+        <v>3186346</v>
       </c>
       <c r="U45" s="6" t="n">
-        <v>0.4279994862345509</v>
+        <v>0.427999486234551</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.4173193058018898</v>
+        <v>0.4169170301871764</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.439741819037162</v>
+        <v>0.4397271443291786</v>
       </c>
     </row>
     <row r="46">
@@ -3755,19 +3755,19 @@
         <v>475437</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>434232</v>
+        <v>432977</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>517948</v>
+        <v>519071</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1349545247891886</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1232582176166565</v>
+        <v>0.1229020532901855</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1470214239507792</v>
+        <v>0.1473401443515666</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>1213</v>
@@ -3776,19 +3776,19 @@
         <v>779756</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>737792</v>
+        <v>737183</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>823444</v>
+        <v>826313</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.209429186210488</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.1981583328914097</v>
+        <v>0.1979946866561285</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.2211629265897101</v>
+        <v>0.2219335740052676</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>1726</v>
@@ -3797,19 +3797,19 @@
         <v>1255193</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1195976</v>
+        <v>1198238</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>1319885</v>
+        <v>1317888</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.1732211727640043</v>
+        <v>0.1732211727640044</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1650490238353145</v>
+        <v>0.1653611315555578</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1821488198656609</v>
+        <v>0.181873272637161</v>
       </c>
     </row>
     <row r="47">
@@ -3826,19 +3826,19 @@
         <v>77551</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>61456</v>
+        <v>61759</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>98836</v>
+        <v>96674</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.02201317023332309</v>
+        <v>0.0220131702333231</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.01744449830003112</v>
+        <v>0.01753039192026387</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.02805490689302049</v>
+        <v>0.027441228551786</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>184</v>
@@ -3847,19 +3847,19 @@
         <v>127390</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>110608</v>
+        <v>109273</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>148406</v>
+        <v>147012</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.03421490600373888</v>
+        <v>0.03421490600373889</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.02970731289286047</v>
+        <v>0.0293489535229096</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.0398591982465193</v>
+        <v>0.03948505189985661</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>257</v>
@@ -3868,19 +3868,19 @@
         <v>204942</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>178743</v>
+        <v>178177</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>233375</v>
+        <v>234549</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.02828267879499184</v>
+        <v>0.02828267879499185</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.02466721172958633</v>
+        <v>0.02458903746453586</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.03220660860183246</v>
+        <v>0.03236856126839347</v>
       </c>
     </row>
     <row r="48">
